--- a/bots/crawl_ch/output/clothes_2022-07-12.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-07-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -584,24 +584,24 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6365980012</t>
+          <t>3305779004</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45</t>
+          <t>Naturaline Damen Panty S schwarz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-43-45/p/6365980012</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-s-schwarz/p/3305779004</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -625,156 +625,156 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen Panty S schwarz 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6866452</t>
+          <t>6365980012</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche M</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-m/p/6866452</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-43-45/p/6365980012</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Selenacare</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>24.50/1ST</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche M 24.50 Schweizer Franken</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6075745012</t>
+          <t>6866452</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Natural  11 - 12</t>
+          <t>Selenacare Menstruationsunterwäsche M</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-natural-11-12/p/6075745012</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-m/p/6866452</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Selenacare</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>24.50/1ST</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Natural  11 - 12 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Selenacare Menstruationsunterwäsche M 24.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3305289015</t>
+          <t>6075745012</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss L</t>
+          <t>Avela Strumpfhose Madame Natural  11 - 12</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-l/p/3305289015</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-natural-11-12/p/6075745012</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -784,12 +784,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -798,34 +798,34 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss L 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Natural  11 - 12 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6031467006</t>
+          <t>3305289015</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss S</t>
+          <t>Naturaline Herren Slip weiss L</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-s/p/6031467006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-l/p/3305289015</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -840,7 +840,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -849,34 +849,34 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss S 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip weiss L 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6031467010</t>
+          <t>6031467006</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss S</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-xxl/p/6031467010</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-s/p/6031467006</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -905,123 +905,121 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss S 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6866483</t>
+          <t>6031467010</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tena Silhouette waschbarer Inko-Slip M</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-m/p/6866483</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-xxl/p/6031467010</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tena</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>34.95/1ST</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Tena Silhouette waschbarer Inko-Slip M 34.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3875554009</t>
+          <t>6866483</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Naturaline Büstier weiss L</t>
+          <t>Tena Silhouette waschbarer Inko-Slip M</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-weiss-l/p/3875554009</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-m/p/6866483</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tena</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>34.95/1ST</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
@@ -1029,35 +1027,37 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Naturaline Büstier weiss L 14.95 Schweizer Franken</t>
+          <t>Tena Silhouette waschbarer Inko-Slip M 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3305779004</t>
+          <t>3875554009</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty S schwarz</t>
+          <t>Naturaline Büstier weiss L</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-s-schwarz/p/3305779004</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-weiss-l/p/3875554009</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1080,12 +1080,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty S schwarz 9.95 Schweizer Franken</t>
+          <t>Naturaline Büstier weiss L 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2403,24 +2403,24 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6075745008</t>
+          <t>6075745018</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  11 - 12</t>
+          <t>Avela Strumpfhose Madame 9- nomade</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-11-12/p/6075745008</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-9-nomade/p/6075745018</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -2449,29 +2449,29 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  11 - 12 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame 9- nomade 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6075745005</t>
+          <t>6075745008</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  8.5 - 9</t>
+          <t>Avela Strumpfhose Madame Hasel  11 - 12</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-85-9/p/6075745005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-11-12/p/6075745008</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -2500,29 +2500,29 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  8.5 - 9 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Hasel  11 - 12 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6075745006</t>
+          <t>6075745005</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  9.5</t>
+          <t>Avela Strumpfhose Madame Hasel  8.5 - 9</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-95/p/6075745006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-85-9/p/6075745005</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -2551,29 +2551,29 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  9.5 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Hasel  8.5 - 9 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6075745016</t>
+          <t>6075745006</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Noir  11 - 12</t>
+          <t>Avela Strumpfhose Madame Hasel  9.5</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-noir-11-12/p/6075745016</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-95/p/6075745006</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -2602,29 +2602,29 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Noir  11 - 12 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Hasel  9.5 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6075745017</t>
+          <t>6075745016</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Nomade  8.5 - 9</t>
+          <t>Avela Strumpfhose Madame Noir  11 - 12</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-nomade-85-9/p/6075745017</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-noir-11-12/p/6075745016</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -2653,29 +2653,29 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Nomade  8.5 - 9 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Noir  11 - 12 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6076125011</t>
+          <t>6075745017</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  10 - 10.5</t>
+          <t>Avela Strumpfhose Madame Nomade  8.5 - 9</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-10-105/p/6076125011</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-nomade-85-9/p/6075745017</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -2704,29 +2704,29 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  10 - 10.5 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Nomade  8.5 - 9 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6076125012</t>
+          <t>6076125011</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  11 - 12</t>
+          <t>Avela Strumpfhose Top Silhouette Natural  10 - 10.5</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-11-12/p/6076125012</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-10-105/p/6076125011</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -2755,29 +2755,29 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  11 - 12 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Silhouette Natural  10 - 10.5 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6076125009</t>
+          <t>6076125012</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  8.5 - 9</t>
+          <t>Avela Strumpfhose Top Silhouette Natural  11 - 12</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-85-9/p/6076125009</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-11-12/p/6076125012</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -2806,29 +2806,29 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  8.5 - 9 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Silhouette Natural  11 - 12 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6076125010</t>
+          <t>6076125009</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  9.5</t>
+          <t>Avela Strumpfhose Top Silhouette Natural  8.5 - 9</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-95/p/6076125010</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-85-9/p/6076125009</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -2857,37 +2857,35 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  9.5 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Silhouette Natural  8.5 - 9 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6076125015</t>
+          <t>6076125010</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  10 - 10.5</t>
+          <t>Avela Strumpfhose Top Silhouette Natural  9.5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-10-105/p/6076125015</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-95/p/6076125010</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2910,35 +2908,37 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  10 - 10.5 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Silhouette Natural  9.5 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6076125016</t>
+          <t>6076125015</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  11 - 12</t>
+          <t>Avela Strumpfhose Top Silhouette Noir  10 - 10.5</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-11-12/p/6076125016</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-10-105/p/6076125015</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2961,29 +2961,29 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  11 - 12 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Silhouette Noir  10 - 10.5 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6076125013</t>
+          <t>6076125016</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  8.5 - 9</t>
+          <t>Avela Strumpfhose Top Silhouette Noir  11 - 12</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-85-9/p/6076125013</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-11-12/p/6076125016</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -3012,29 +3012,29 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  8.5 - 9 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Silhouette Noir  11 - 12 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6076125014</t>
+          <t>6076125013</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  9.5</t>
+          <t>Avela Strumpfhose Top Silhouette Noir  8.5 - 9</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-95/p/6076125014</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-85-9/p/6076125013</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -3063,29 +3063,29 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  9.5 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Silhouette Noir  8.5 - 9 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6075749003</t>
+          <t>6076125014</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Noir  11 - 12</t>
+          <t>Avela Strumpfhose Top Silhouette Noir  9.5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-noir-11-12/p/6075749003</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-95/p/6076125014</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -3114,29 +3114,29 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Noir  11 - 12 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Silhouette Noir  9.5 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3875554004</t>
+          <t>6075749003</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Naturaline Büstier schwarz S</t>
+          <t>Avela Strumpfhose Top Size Noir  11 - 12</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-schwarz-s/p/3875554004</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-noir-11-12/p/6075749003</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -3146,12 +3146,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -3160,34 +3160,34 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Naturaline Büstier schwarz S 14.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Size Noir  11 - 12 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3875554007</t>
+          <t>3875554004</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Naturaline Büstier weiss S</t>
+          <t>Naturaline Büstier schwarz S</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-weiss-s/p/3875554007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-schwarz-s/p/3875554004</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -3216,37 +3216,35 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Naturaline Büstier weiss S 14.95 Schweizer Franken</t>
+          <t>Naturaline Büstier schwarz S 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3305779007</t>
+          <t>3875554007</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty S weiss</t>
+          <t>Naturaline Büstier weiss S</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-s-weiss/p/3305779007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-weiss-s/p/3875554007</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3255,7 +3253,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -3269,35 +3267,37 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty S weiss 9.95 Schweizer Franken</t>
+          <t>Naturaline Büstier weiss S 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3305484008</t>
+          <t>3305779007</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip weiss M</t>
+          <t>Naturaline Damen Panty S weiss</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-weiss-m/p/3305484008</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-s-weiss/p/3305779007</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -3320,29 +3320,29 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip weiss M 7.95 Schweizer Franken</t>
+          <t>Naturaline Damen Panty S weiss 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>4322745004</t>
+          <t>3305484008</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz L</t>
+          <t>Naturaline Damen Slip weiss M</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-schwarz-l/p/4322745004</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-weiss-m/p/3305484008</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -3371,29 +3371,29 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz L 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen Slip weiss M 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4322745002</t>
+          <t>4322745004</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz S</t>
+          <t>Naturaline Damen String schwarz L</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-schwarz-s/p/4322745002</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-schwarz-l/p/4322745004</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -3422,29 +3422,29 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz S 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen String schwarz L 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4322745007</t>
+          <t>4322745002</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Naturaline Damen String weiss M</t>
+          <t>Naturaline Damen String schwarz S</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-weiss-m/p/4322745007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-schwarz-s/p/4322745002</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -3473,29 +3473,29 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Naturaline Damen String weiss M 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen String schwarz S 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3450446005</t>
+          <t>4322745007</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz S</t>
+          <t>Naturaline Damen String weiss M</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-s/p/3450446005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-weiss-m/p/4322745007</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -3519,34 +3519,34 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz S 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>Naturaline Damen String weiss M 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3404677005</t>
+          <t>3450446005</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip schwarz S</t>
+          <t>Naturaline Herren Shirt schwarz S</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-schwarz-s/p/3404677005</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-s/p/3450446005</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -3570,34 +3570,34 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip schwarz S 50% Aktion 7.45 Schweizer Franken statt 14.95 Schweizer Franken</t>
+          <t>Naturaline Herren Shirt schwarz S 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3305289014</t>
+          <t>3404677005</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss M</t>
+          <t>Naturaline Herren Slip schwarz S</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-m/p/3305289014</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-schwarz-s/p/3404677005</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -3626,29 +3626,29 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss M 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip schwarz S 50% Aktion 7.45 Schweizer Franken statt 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3305289013</t>
+          <t>3305289014</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss S</t>
+          <t>Naturaline Herren Slip weiss M</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-s/p/3305289013</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-m/p/3305289014</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -3677,29 +3677,29 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss S 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip weiss M 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6365980001</t>
+          <t>3305289013</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Dunkelgrau 40 - 42</t>
+          <t>Naturaline Herren Slip weiss S</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-dunkelgrau-40-42/p/6365980001</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-s/p/3305289013</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -3723,34 +3723,34 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Dunkelgrau 40 - 42 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip weiss S 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6365980011</t>
+          <t>6365980001</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 40 - 42</t>
+          <t>Naturaline Herren Socken Glatt Duo Dunkelgrau 40 - 42</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-40-42/p/6365980011</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-dunkelgrau-40-42/p/6365980001</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -3779,29 +3779,29 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 40 - 42 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Socken Glatt Duo Dunkelgrau 40 - 42 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6031467016</t>
+          <t>6365980011</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz S</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 40 - 42</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-s/p/6031467016</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-40-42/p/6365980011</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -3825,34 +3825,34 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz S 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 40 - 42 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3890690001</t>
+          <t>6031467016</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Portemonnaie schwarz quer klein</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz S</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/portemonnaie/portemonnaie-schwarz-quer-klein/p/3890690001</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-s/p/6031467016</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -3860,10 +3860,14 @@
       <c r="F65" t="n">
         <v>0</v>
       </c>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>34.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -3872,107 +3876,81 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'portemonnaie']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Portemonnaie schwarz quer klein 34.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz S 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6548199</t>
+          <t>3890690001</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche M</t>
+          <t>Portemonnaie schwarz quer klein</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-m/p/6548199</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/portemonnaie/portemonnaie-schwarz-quer-klein/p/3890690001</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
-        <v>5</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Selenacare</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>24.50/1ST</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'portemonnaie']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche M 24.50 Schweizer Franken</t>
+          <t>Portemonnaie schwarz quer klein 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6548194</t>
+          <t>6548199</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche S</t>
+          <t>Selenacare Menstruationsunterwäsche M</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-s/p/6548194</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-m/p/6548199</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3980,9 +3958,11 @@
           <t>1ST</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>2</v>
+      </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -4021,19 +4001,19 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche S 24.50 Schweizer Franken</t>
+          <t>Selenacare Menstruationsunterwäsche M 24.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6866398</t>
+          <t>6548194</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4043,7 +4023,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-s/p/6866398</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-s/p/6548194</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4097,84 +4077,108 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>5799901002</t>
+          <t>6866398</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Taschenschirm Alu schwarz</t>
+          <t>Selenacare Menstruationsunterwäsche S</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-alu-schwarz/p/5799901002</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-s/p/6866398</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
       <c r="F69" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Selenacare</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>19.95</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>24.50/1ST</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Taschenschirm Alu schwarz 19.95 Schweizer Franken</t>
+          <t>Selenacare Menstruationsunterwäsche S 24.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>5796044002</t>
+          <t>5799901002</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Taschenschirm fuchsia gepunktet</t>
+          <t>Taschenschirm Alu schwarz</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-fuchsia-gepunktet/p/5796044002</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-alu-schwarz/p/5799901002</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>3</v>
+      </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -4188,29 +4192,29 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Taschenschirm fuchsia gepunktet 14.95 Schweizer Franken</t>
+          <t>Taschenschirm Alu schwarz 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>5796044001</t>
+          <t>5796044002</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Taschenschirm sand gepunktet</t>
+          <t>Taschenschirm fuchsia gepunktet</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-sand-gepunktet/p/5796044001</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-fuchsia-gepunktet/p/5796044002</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -4235,42 +4239,40 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Taschenschirm sand gepunktet 14.95 Schweizer Franken</t>
+          <t>Taschenschirm fuchsia gepunktet 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-12 07:04:25</t>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>5799902001</t>
+          <t>5796044001</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Taschenschirm schwarz</t>
+          <t>Taschenschirm sand gepunktet</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-schwarz/p/5799902001</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-sand-gepunktet/p/5796044001</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="n">
-        <v>1</v>
-      </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -4284,12 +4286,61 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
+          <t>Taschenschirm sand gepunktet 14.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>2022-07-12 20:58:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>5799902001</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Taschenschirm schwarz</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-schwarz/p/5799902001</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
           <t>Taschenschirm schwarz 19.95 Schweizer Franken</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>2022-07-12 07:04:25</t>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>2022-07-12 20:58:05</t>
         </is>
       </c>
     </row>
